--- a/SessionLibrary/_SessionLIbraryExcel.Tests/bin/Debug/SessionResults.xlsx
+++ b/SessionLibrary/_SessionLIbraryExcel.Tests/bin/Debug/SessionResults.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Surname</t>
   </si>
@@ -59,12 +59,18 @@
     <t>8</t>
   </si>
   <si>
+    <t>15.11.2019</t>
+  </si>
+  <si>
     <t>Physics</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>10.07.2020</t>
+  </si>
+  <si>
     <t>Philosophy</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>Andreevich</t>
   </si>
   <si>
+    <t>14.07.2020</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -92,12 +101,18 @@
     <t>Sergeevich</t>
   </si>
   <si>
+    <t>13.11.2019</t>
+  </si>
+  <si>
     <t>Psychology</t>
   </si>
   <si>
     <t>Uncredit</t>
   </si>
   <si>
+    <t>15.07.2020</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -108,6 +123,9 @@
   </si>
   <si>
     <t>Ivanovna</t>
+  </si>
+  <si>
+    <t>14.11.2019</t>
   </si>
   <si>
     <t>2</t>
@@ -255,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -327,16 +345,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -350,53 +368,53 @@
         <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>11</v>
@@ -405,136 +423,136 @@
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>11</v>
@@ -543,30 +561,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -616,94 +611,94 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +708,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -753,208 +748,162 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1005,16 +954,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>11</v>
@@ -1023,67 +972,67 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>11</v>
@@ -1092,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
